--- a/Expectation.xlsx
+++ b/Expectation.xlsx
@@ -106,7 +106,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -122,7 +122,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -178,7 +178,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -194,7 +194,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -202,7 +202,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -234,7 +234,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
@@ -242,7 +242,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -250,7 +250,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
